--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7FE69-39D3-48CF-A2FA-3C4445CE4B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DBA88E-C56C-463F-BC22-C1D1C0D0588A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>TestCase</t>
   </si>
@@ -154,15 +154,6 @@
     <t>Storerooms</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -173,6 +164,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D26"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -642,24 +639,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -667,159 +662,161 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -829,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -842,10 +839,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -855,40 +852,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
@@ -896,40 +893,40 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
@@ -937,10 +934,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -950,12 +947,25 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -991,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1039,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1047,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1086,15 +1096,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1291,6 +1292,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
@@ -1301,14 +1311,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1325,4 +1327,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DBA88E-C56C-463F-BC22-C1D1C0D0588A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A4810-CFFE-4943-8F79-4BFECC1B4B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>TestCase</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Welcomeelement</t>
   </si>
   <si>
-    <t>MyaccountSection</t>
-  </si>
-  <si>
     <t>VERIFY_TEXT_PRESENT</t>
   </si>
   <si>
@@ -118,58 +115,73 @@
     <t>ProductPLP</t>
   </si>
   <si>
+    <t>SaveStorerooms</t>
+  </si>
+  <si>
+    <t>MOUSEOVER</t>
+  </si>
+  <si>
+    <t>ProductMegamenu</t>
+  </si>
+  <si>
+    <t>PDPStoreroom</t>
+  </si>
+  <si>
+    <t>PDPStoreroomOPT</t>
+  </si>
+  <si>
+    <t>EditStoreroom</t>
+  </si>
+  <si>
+    <t>SaveStoreroomchangesbutton</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>TC27_Verify_Store_room</t>
+  </si>
+  <si>
+    <t>Storerooms</t>
+  </si>
+  <si>
+    <t>$BaseURL</t>
+  </si>
+  <si>
+    <t>$Registered_Username</t>
+  </si>
+  <si>
+    <t>$Registered_Password</t>
+  </si>
+  <si>
+    <t>Test Message</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>MyaccountSecRegisteredUser</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
+  </si>
+  <si>
     <t>Logout</t>
-  </si>
-  <si>
-    <t>SaveStorerooms</t>
-  </si>
-  <si>
-    <t>MOUSEOVER</t>
-  </si>
-  <si>
-    <t>ProductMegamenu</t>
-  </si>
-  <si>
-    <t>PDPStoreroom</t>
-  </si>
-  <si>
-    <t>PDPStoreroomOPT</t>
-  </si>
-  <si>
-    <t>EditStoreroom</t>
-  </si>
-  <si>
-    <t>SaveStoreroomchangesbutton</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>sadsad</t>
-  </si>
-  <si>
-    <t>TC27_Verify_Store_room</t>
-  </si>
-  <si>
-    <t>Storerooms</t>
-  </si>
-  <si>
-    <t>$BaseURL</t>
-  </si>
-  <si>
-    <t>$Registered_Username</t>
-  </si>
-  <si>
-    <t>$Registered_Password</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>LoginURL</t>
-  </si>
-  <si>
-    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -619,7 +631,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -632,14 +644,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -649,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -665,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -680,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -692,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -717,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -729,26 +741,26 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -757,26 +769,26 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -785,38 +797,38 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -826,24 +838,20 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
@@ -852,40 +860,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
@@ -893,24 +895,20 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
@@ -919,13 +917,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -934,24 +932,20 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
@@ -960,12 +954,75 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -976,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1001,28 +1058,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1030,7 +1087,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1038,10 +1095,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1049,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1057,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1078,10 +1135,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1090,12 +1163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1292,6 +1359,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1302,15 +1375,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1329,6 +1393,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
